--- a/Dashboard/WebContent/Data/Task_List.xlsx
+++ b/Dashboard/WebContent/Data/Task_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="8460" activeTab="1"/>
+    <workbookView windowWidth="20400" windowHeight="8460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Work Sheet" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
   <si>
     <t>Date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>IT Software Working Task</t>
   </si>
   <si>
-    <t>Learn About ODK &amp; Configuration techniques for ODK Aggregate for local install.</t>
+    <t>Learn About ODK &amp; Configuration techniques for ODK Aggregate for local install....Done</t>
   </si>
   <si>
     <t>Problem Noticed</t>
@@ -79,7 +79,7 @@
     <t>Give demo to ballal sir and approve.</t>
   </si>
   <si>
-    <t>New Requirement Received from Ballal sir in DMS…..Pending.</t>
+    <t>New Requirement Received from Ballal sir in DMS…..In Progress.</t>
   </si>
   <si>
     <t>Working on Interface between mobile and ODK Local using static IP Test..config fail.</t>
@@ -121,16 +121,16 @@
     <t>Party wise work order report bug fix</t>
   </si>
   <si>
-    <t>Auto Mail for Pending Approval Alert……2 days required.</t>
-  </si>
-  <si>
-    <t>Vendor Boring receipt Changes received from ADG</t>
+    <t>Auto Mail for Pending Approval Alert……2 days required.....Done.</t>
+  </si>
+  <si>
+    <t>Vendor Boring receipt Changes received from ADG....Done.</t>
   </si>
   <si>
     <t>Auto Mail for Pending Approval Alert done….</t>
   </si>
   <si>
-    <t>Boring segregation required in Foundry MIS received from Mr. Nade sir….4 days required.</t>
+    <t>Boring segregation required in Foundry MIS received from Mr. Nade sir….4 days required....Done.</t>
   </si>
   <si>
     <t xml:space="preserve">Boring Segregation </t>
@@ -140,7 +140,7 @@
 New Joinee Training for Inhouse Software</t>
   </si>
   <si>
-    <t>Without PO GRN Auto Mailer...IT MOM</t>
+    <t>Without PO GRN Auto Mailer...IT MOM.....Done.</t>
   </si>
   <si>
     <t>On Leave</t>
@@ -154,27 +154,58 @@
 (Not in ERP)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">DMS DAtabase Update , </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>without WO issue Subcontract Auto Mail, Training Kit for IT New Users</t>
-    </r>
+    <t>DMS DAtabase Update , without WO issue Subcontract Auto Mail, Training Kit for IT New Users</t>
+  </si>
+  <si>
+    <t>ODK Setup DVPBOSS Updated SOP upload</t>
+  </si>
+  <si>
+    <t>IT Tracker  User wise count and bug fix.</t>
+  </si>
+  <si>
+    <t>ERP MOM, DMS User wise Rights &amp; history for read files.</t>
+  </si>
+  <si>
+    <t>Create DMS SRS, DMS User wise Rights
+History for read files,Bug Fix,
+History for newly added files.
+IT MOM Sheet Prepared.</t>
+  </si>
+  <si>
+    <t>MOM with Covacsis technologies for foundry furnace unit 
+Analysis, Installation and Updation.</t>
+  </si>
+  <si>
+    <t>IT MOM, Software and Hardware analysis.</t>
+  </si>
+  <si>
+    <t>Application compilation check on remote machine</t>
+  </si>
+  <si>
+    <t>Bill wise purchase details...Vivek sir
+Meeting Samant</t>
+  </si>
+  <si>
+    <t>MOM Updation and maintain documents.</t>
+  </si>
+  <si>
+    <t>ComplaintZilla Analysis for Internal complaints, Software Review.
+Update new drop down in ComplaintZilla for Complaint Type,
+Update in automailer and all site.
+Debug final check &amp; deploy.
+New User Training &amp; review.</t>
+  </si>
+  <si>
+    <t>PO Validity reminder Auto Mail,Party wise WO report issue</t>
+  </si>
+  <si>
+    <t>Maintain SRS Documents.</t>
+  </si>
+  <si>
+    <t>Without PO GRN Auto Mailer for Jaideep SIr above 1000...IT MOM</t>
+  </si>
+  <si>
+    <t>New Soft user training.</t>
   </si>
   <si>
     <t>SUMMARY</t>
@@ -198,6 +229,9 @@
     <t>Start Date</t>
   </si>
   <si>
+    <t>Upto Date</t>
+  </si>
+  <si>
     <t>Worked Days</t>
   </si>
   <si>
@@ -216,23 +250,23 @@
     <t>7 days</t>
   </si>
   <si>
-    <t>DMS Customization(Ballal R.S.)
-History &amp; User wise Access required</t>
+    <t>Create DMS SRS, DMS Customization(Ballal R.S.)
+History &amp; User wise Access required,Bug Fix</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>5 Days</t>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>6 Days</t>
+  </si>
+  <si>
+    <t>3 and 1/2 days</t>
   </si>
   <si>
     <t>Auto - Mail for Pending approval list(Kunal VM)</t>
-  </si>
-  <si>
-    <t>Closed</t>
   </si>
   <si>
     <t>3 Days</t>
@@ -248,11 +282,13 @@
 Get master</t>
   </si>
   <si>
-    <t>Conference hall booking.....Mr. Govind Bharmgunde
-&amp; Changes in design</t>
-  </si>
-  <si>
-    <t>Data Import test for MySql 5.7</t>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Conference hall booking. calender....Mr. Govind Bharmgunde &amp; Changes in design</t>
+  </si>
+  <si>
+    <t>Without PO GRN Auto Mailer...IT MOM</t>
   </si>
   <si>
     <t>20/08/2016</t>
@@ -282,38 +318,139 @@
     <t>IT User wise Usage report</t>
   </si>
   <si>
+    <t>19/08/2016,
+01/09/2016</t>
+  </si>
+  <si>
+    <t>2 and 1/2 Day</t>
+  </si>
+  <si>
+    <t>Vendor Portal Software SRS</t>
+  </si>
+  <si>
+    <t>5 Days</t>
+  </si>
+  <si>
+    <t>Visitor Monitoring</t>
+  </si>
+  <si>
+    <t>SMS API</t>
+  </si>
+  <si>
+    <t>In pending approval Auto Mailer update approver name| Department...ADG (Not in ERP)</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>without WO issue Subcontract Auto Mail</t>
+  </si>
+  <si>
+    <t>Training Kit for IT Software Developers</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>Asset Portal in IT Tracker</t>
+  </si>
+  <si>
+    <t>IT Tracker call transfer to makarand update</t>
+  </si>
+  <si>
+    <t>ODK Setup
+DVPBOSS Updated SOP upload</t>
+  </si>
+  <si>
+    <t>System Health check report</t>
+  </si>
+  <si>
+    <t>ERP MOM</t>
+  </si>
+  <si>
+    <t>ERP User Wise Count</t>
+  </si>
+  <si>
+    <t>ERP Auto Mailer(Reconfigure to erp@muthagroup.com)</t>
+  </si>
+  <si>
+    <t>MOM with Covacsis technologies for foundry furnace unit 
+Analysis, Installation and SRS.</t>
+  </si>
+  <si>
+    <t>ComplaintZilla for internal complaints update...by PRM.</t>
+  </si>
+  <si>
+    <t>8 Days</t>
+  </si>
+  <si>
+    <t>16/09/2016</t>
+  </si>
+  <si>
+    <t>22/09/2016</t>
+  </si>
+  <si>
+    <t>Database monitoring</t>
+  </si>
+  <si>
+    <t>DVP Boss Training &amp; requirement gathering to Samant</t>
+  </si>
+  <si>
+    <t>Auto-Mail GUI For email configuration</t>
+  </si>
+  <si>
+    <t>Maintain DR Document</t>
+  </si>
+  <si>
+    <t>Bill wise purchase details &amp; Excel Export...Vivek sir</t>
+  </si>
+  <si>
+    <t>2 Day</t>
+  </si>
+  <si>
+    <t>Tootling Project</t>
+  </si>
+  <si>
+    <t>PO Validity reminder Auto Mail</t>
+  </si>
+  <si>
+    <t>23/09/2016</t>
+  </si>
+  <si>
+    <t>25/09/2016</t>
+  </si>
+  <si>
+    <t>Party wise WO report issue</t>
+  </si>
+  <si>
+    <t>2 Hr</t>
+  </si>
+  <si>
+    <t>Inter-Company Automail.....from Kharat sir</t>
+  </si>
+  <si>
+    <t>28/09/2016</t>
+  </si>
+  <si>
+    <t>Find blob contents type</t>
+  </si>
+  <si>
+    <t>Backup Process Check</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>ComplaintZilla updates for internal complaints and bug fix engine.</t>
+  </si>
+  <si>
+    <t>Maintain SRS Documents</t>
+  </si>
+  <si>
+    <t>26/09/2016</t>
+  </si>
+  <si>
     <t>Low</t>
-  </si>
-  <si>
-    <t>1 Day</t>
-  </si>
-  <si>
-    <t>Vendor Portal Software SRS</t>
-  </si>
-  <si>
-    <t>Visitor Monitoring</t>
-  </si>
-  <si>
-    <t>SMS API</t>
-  </si>
-  <si>
-    <t>In pending approval Auto Mailer update approver name| Department...ADG
-(Not in ERP)</t>
-  </si>
-  <si>
-    <t>without WO issue Subcontract Auto Mail</t>
-  </si>
-  <si>
-    <t>Training Kit for IT Software Developers</t>
-  </si>
-  <si>
-    <t>1 hr</t>
-  </si>
-  <si>
-    <t>Asset Portal in IT Tracker</t>
-  </si>
-  <si>
-    <t>IT Tracker call transfer to makarand update</t>
   </si>
   <si>
     <t>Show Stopper</t>
@@ -326,10 +463,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -348,14 +485,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,13 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="24"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="24"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,8 +534,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -481,6 +623,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,195 +679,277 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1033,328 +1292,525 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.1428571428571" style="49" customWidth="1"/>
-    <col min="2" max="2" width="93.5714285714286" style="50" customWidth="1"/>
-    <col min="3" max="3" width="2.71428571428571" customWidth="1"/>
-    <col min="4" max="4" width="60.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="10.4285714285714" style="63" customWidth="1"/>
+    <col min="2" max="2" width="96.5714285714286" style="64" customWidth="1"/>
+    <col min="3" max="3" width="2.71428571428571" style="65" customWidth="1"/>
+    <col min="4" max="4" width="60.5714285714286" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A1" s="51" t="s">
+    <row r="1" s="3" customFormat="1" ht="24" customHeight="1" spans="1:2">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="53">
+      <c r="A2" s="68">
         <v>42588</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="70" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="53"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="53"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="72" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="53"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53">
+      <c r="A6" s="68">
         <v>42589</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="71" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="71" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="71" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53">
+      <c r="A10" s="68">
         <v>42590</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="71" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="71" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="53">
+      <c r="A14" s="68">
         <v>42592</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="71" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="69" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="71" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="53">
+      <c r="A18" s="68">
         <v>42593</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="71" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="71" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="71" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="71" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="68"/>
+      <c r="B23" s="71" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="53">
+      <c r="A24" s="68">
         <v>42594</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="71" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="71" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="56" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="71" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="53">
+      <c r="A28" s="68">
         <v>42595</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="71" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="56" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="71" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="69" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="53">
+      <c r="A31" s="68">
         <v>42596</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="69" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="56" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="71" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54" t="s">
+      <c r="A33" s="68"/>
+      <c r="B33" s="69" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="53">
+      <c r="A34" s="68">
         <v>42599</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="73" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="53">
+      <c r="A35" s="68">
         <v>42600</v>
       </c>
-      <c r="B35" s="58"/>
+      <c r="B35" s="73"/>
     </row>
     <row r="36" ht="30" spans="1:2">
-      <c r="A36" s="53">
+      <c r="A36" s="68">
         <v>42601</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="53">
+      <c r="A37" s="68">
         <v>42602</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="75" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="53">
+      <c r="A38" s="68">
         <v>42603</v>
       </c>
-      <c r="B38" s="58"/>
+      <c r="B38" s="75"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="53">
+      <c r="A39" s="68">
         <v>42604</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="53">
+      <c r="A40" s="68">
         <v>42605</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="71" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" ht="45" spans="1:2">
-      <c r="A41" s="53">
+      <c r="A41" s="68">
         <v>42606</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="76" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="62">
+      <c r="A42" s="77">
         <v>42607</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="73" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="62">
+      <c r="A43" s="77">
         <v>42608</v>
       </c>
-      <c r="B43" s="64"/>
+      <c r="B43" s="73"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="77">
+        <v>42609</v>
+      </c>
+      <c r="B44" s="73"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="77">
+        <v>42610</v>
+      </c>
+      <c r="B45" s="78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="77">
+        <v>42611</v>
+      </c>
+      <c r="B46" s="73"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="79">
+        <v>42613</v>
+      </c>
+      <c r="B47" s="80"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="77">
+        <v>42614</v>
+      </c>
+      <c r="B48" s="81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="79">
+        <v>42615</v>
+      </c>
+      <c r="B49" s="82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" s="62" customFormat="1" spans="1:2">
+      <c r="A50" s="83">
+        <v>42615</v>
+      </c>
+      <c r="B50" s="84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" s="62" customFormat="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A51" s="83">
+        <v>42616</v>
+      </c>
+      <c r="B51" s="84"/>
+    </row>
+    <row r="52" s="62" customFormat="1" spans="1:2">
+      <c r="A52" s="83">
+        <v>42617</v>
+      </c>
+      <c r="B52" s="84"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="85">
+        <v>42618</v>
+      </c>
+      <c r="B53" s="86"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="83">
+        <v>42620</v>
+      </c>
+      <c r="B54" s="84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="83">
+        <v>42621</v>
+      </c>
+      <c r="B55" s="86"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="87">
+        <v>42622</v>
+      </c>
+      <c r="B56" s="88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="87">
+        <v>42623</v>
+      </c>
+      <c r="B57" s="88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="87">
+        <v>42624</v>
+      </c>
+      <c r="B58" s="84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="87">
+        <v>42625</v>
+      </c>
+      <c r="B59" s="89"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="87">
+        <v>42626</v>
+      </c>
+      <c r="B60" s="90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="87">
+        <v>42629</v>
+      </c>
+      <c r="B61" s="84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="87">
+        <v>42630</v>
+      </c>
+      <c r="B62" s="84"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="87">
+        <v>42631</v>
+      </c>
+      <c r="B63" s="84"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="87">
+        <v>42634</v>
+      </c>
+      <c r="B64" s="84"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="91">
+        <v>42635</v>
+      </c>
+      <c r="B65" s="86"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="87">
+        <v>42636</v>
+      </c>
+      <c r="B66" s="73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="87">
+        <v>42637</v>
+      </c>
+      <c r="B67" s="73"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="87">
+        <v>42638</v>
+      </c>
+      <c r="B68" s="80"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="87">
+        <v>42639</v>
+      </c>
+      <c r="B69" s="88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="87">
+        <v>42641</v>
+      </c>
+      <c r="B70" s="88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="87">
+        <v>42642</v>
+      </c>
+      <c r="B71" s="92" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -1365,7 +1821,13 @@
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B68"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1376,514 +1838,990 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.71428571428571" style="5" customWidth="1"/>
-    <col min="2" max="2" width="55.5714285714286" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.71428571428571" style="7" customWidth="1"/>
+    <col min="2" max="2" width="65" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.4285714285714" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.8571428571429" style="6" customWidth="1"/>
-    <col min="6" max="7" width="11.4285714285714" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.7142857142857" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.8571428571429" style="8" customWidth="1"/>
+    <col min="6" max="7" width="11.4285714285714" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14.4285714285714" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="13" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:8">
+      <c r="A1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:8">
+      <c r="A2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:8">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="19">
+        <v>42588</v>
+      </c>
+      <c r="G3" s="19">
+        <v>42595</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:8">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="24">
+        <v>42615</v>
+      </c>
+      <c r="G4" s="24">
+        <v>42618</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:8">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="19">
+        <v>42595</v>
+      </c>
+      <c r="G5" s="19">
+        <v>42596</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="19">
+        <v>42599</v>
+      </c>
+      <c r="G6" s="19">
+        <v>42600</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:8">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" ht="30" spans="1:8">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="30">
+        <v>42601</v>
+      </c>
+      <c r="G11" s="30">
+        <v>42601</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:8">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="32">
+        <v>42615</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:8">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:8">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:8">
+      <c r="A15" s="16">
+        <v>13</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" ht="30" spans="1:8">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="24">
+        <v>42606</v>
+      </c>
+      <c r="G16" s="24">
+        <v>42606</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="16">
+        <v>15</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="24">
+        <v>42606</v>
+      </c>
+      <c r="G17" s="24">
+        <v>42606</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="16">
+        <v>16</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="24">
+        <v>42607</v>
+      </c>
+      <c r="G18" s="24">
+        <v>42609</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="36">
+        <v>42607</v>
+      </c>
+      <c r="G19" s="36">
+        <v>42607</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="1:8">
+      <c r="A20" s="16">
+        <v>18</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="16">
+        <v>19</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" ht="30" spans="1:8">
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="36">
+        <v>42610</v>
+      </c>
+      <c r="G22" s="36">
+        <v>42613</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="16">
+        <v>21</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="47"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="16">
+        <v>22</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="48">
+        <v>1</v>
+      </c>
+      <c r="F24" s="36">
+        <v>42615</v>
+      </c>
+      <c r="G24" s="36">
+        <v>42615</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="47"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="16">
+        <v>24</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="47"/>
+    </row>
+    <row r="27" ht="30" spans="1:8">
+      <c r="A27" s="20">
+        <v>25</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="52">
+        <v>42620</v>
+      </c>
+      <c r="G27" s="52">
+        <v>42621</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" s="5" customFormat="1" spans="1:8">
+      <c r="A28" s="53">
+        <v>26</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="1:8">
+      <c r="A29" s="57">
+        <v>27</v>
+      </c>
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:8">
-      <c r="A3" s="14">
+      <c r="C29" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="41">
+        <v>42623</v>
+      </c>
+      <c r="G29" s="41">
+        <v>42623</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" s="6" customFormat="1" spans="1:8">
+      <c r="A30" s="20">
+        <v>28</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="20">
+        <v>29</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="17">
-        <v>42588</v>
-      </c>
-      <c r="G3" s="17">
-        <v>42595</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="F31" s="58">
+        <v>42625</v>
+      </c>
+      <c r="G31" s="58">
+        <v>42625</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" s="6" customFormat="1" spans="1:8">
+      <c r="A32" s="57">
+        <v>30</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="47"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" s="6" customFormat="1" spans="1:8">
+      <c r="A33" s="20">
+        <v>31</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="57">
+        <v>32</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="48">
+        <v>2</v>
+      </c>
+      <c r="F34" s="58">
+        <v>42624</v>
+      </c>
+      <c r="G34" s="58">
+        <v>42625</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="16">
+        <v>33</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="57">
+        <v>34</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="57">
+        <v>35</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="47">
+        <v>1</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="41"/>
+      <c r="H37" s="47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="20">
+        <v>36</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="60">
+        <v>37</v>
+      </c>
+      <c r="B39" s="61" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" ht="30" spans="1:8">
-      <c r="A4" s="18">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:8">
-      <c r="A5" s="14">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="17">
-        <v>42595</v>
-      </c>
-      <c r="G5" s="17">
-        <v>42596</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="14">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="C39" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="48">
+        <v>1</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="17">
-        <v>42599</v>
-      </c>
-      <c r="G6" s="17">
-        <v>42600</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" ht="30" spans="1:8">
-      <c r="A7" s="18">
-        <v>5</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" ht="30" spans="1:8">
-      <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="18">
-        <v>7</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="B40" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="14">
-        <v>8</v>
-      </c>
-      <c r="B10" s="25" t="s">
+      <c r="D40" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="57">
+        <v>39</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="47"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="60">
         <v>40</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="18">
-        <v>9</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="B42" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="47"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="47"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="16">
+        <v>41</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="14">
-        <v>10</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="D43" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="28">
-        <v>42601</v>
-      </c>
-      <c r="G12" s="28">
-        <v>42601</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="18">
-        <v>11</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="29">
-        <v>42601</v>
-      </c>
-      <c r="G13" s="29">
-        <v>42601</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="1:8">
-      <c r="A14" s="30">
-        <v>12</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="1:8">
-      <c r="A15" s="18">
-        <v>13</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:8">
-      <c r="A16" s="18">
-        <v>14</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" ht="45" spans="1:8">
-      <c r="A17" s="34">
-        <v>15</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="37">
-        <v>42606</v>
-      </c>
-      <c r="G17" s="37">
-        <v>42606</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="14">
-        <v>16</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="37">
-        <v>42606</v>
-      </c>
-      <c r="G18" s="37">
-        <v>42606</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="38">
-        <v>17</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="42">
-        <v>42607</v>
-      </c>
-      <c r="G19" s="43">
-        <v>42609</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="44">
-        <v>18</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="46">
-        <v>42607</v>
-      </c>
-      <c r="G20" s="46">
-        <v>42607</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:8">
-      <c r="A21" s="18">
-        <v>19</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="48"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="18">
-        <v>20</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="48"/>
+      <c r="E43" s="23">
+        <v>1</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C17 C18 C19 C2:C11 C14:C16 C21:C22 C23:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 C16 C17 C18 C35 C2:C8 C9:C10 C13:C15 C20:C21 C22:C34 C36:C1048573">
       <formula1>.!$A$1:$A$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -1909,22 +2847,22 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
